--- a/source0.xlsx
+++ b/source0.xlsx
@@ -3782,8 +3782,7 @@
 week. Четная week.</t>
   </si>
   <si>
-    <t>s.  Проектное обучение
-s.
+    <t>s.  s.
 ty.  Проект
 ty.
 te.  te.
@@ -3793,8 +3792,7 @@
 week. Четная week.</t>
   </si>
   <si>
-    <t>s.  Проектное обучение
-s.
+    <t>s.  s.
 ty.  Проект
 ty.
 te.  te.
@@ -3804,8 +3802,7 @@
 week. Четная week.</t>
   </si>
   <si>
-    <t>s.  Проектное обучение
-s.
+    <t>s.  s.
 ty.  Проект
 ty.
 te.  te.
@@ -3815,8 +3812,7 @@
 week. Четная week.</t>
   </si>
   <si>
-    <t>s.  Проектное обучение
-s.
+    <t>s.  s.
 ty.  Проект
 ty.
 te.  te.
@@ -5355,8 +5351,7 @@
 week. Четная week.</t>
   </si>
   <si>
-    <t>s.  Проектное обучение
-s.
+    <t>s.  s.
 ty.  Проект
 ty.
 te.  te.
@@ -5366,8 +5361,7 @@
 week. Четная week.</t>
   </si>
   <si>
-    <t>s.  Проектное обучение
-s.
+    <t>s.  s.
 ty.  Проект
 ty.
 te.  te.
@@ -5377,8 +5371,7 @@
 week. Четная week.</t>
   </si>
   <si>
-    <t>s.  Проектное обучение
-s.
+    <t>s.  s.
 ty.  Проект
 ty.
 te.  te.
@@ -5388,8 +5381,7 @@
 week. Четная week.</t>
   </si>
   <si>
-    <t>s.  Проектное обучение
-s.
+    <t>s.  s.
 ty.  Проект
 ty.
 te.  te.
@@ -6885,8 +6877,7 @@
 week. Четная week.</t>
   </si>
   <si>
-    <t>s.  Проектное обучение
-s.
+    <t>s.  s.
 ty.  Проект
 ty.
 te.  te.
@@ -6896,8 +6887,7 @@
 week. Четная week.</t>
   </si>
   <si>
-    <t>s.  Проектное обучение
-s.
+    <t>s.  s.
 ty.  Проект
 ty.
 te.  te.
@@ -6907,8 +6897,7 @@
 week. Четная week.</t>
   </si>
   <si>
-    <t>s.  Проектное обучение
-s.
+    <t>s.  s.
 ty.  Проект
 ty.
 te.  te.
@@ -6918,8 +6907,7 @@
 week. Четная week.</t>
   </si>
   <si>
-    <t>s.  Проектное обучение
-s.
+    <t>s.  s.
 ty.  Проект
 ty.
 te.  te.
@@ -7139,8 +7127,7 @@
 week. Четная week.</t>
   </si>
   <si>
-    <t>s.  Проектное обучение
-s.
+    <t>s.  s.
 ty.  Проект
 ty.
 te.  te.
@@ -7149,8 +7136,7 @@
 week. Четная week.</t>
   </si>
   <si>
-    <t>s.  Проектное обучение
-s.
+    <t>s.  s.
 ty.  Проект
 ty.
 te.  te.
@@ -7159,8 +7145,7 @@
 week. Четная week.</t>
   </si>
   <si>
-    <t>s.  Проектное обучение
-s.
+    <t>s.  s.
 ty.  Проект
 ty.
 te.  te.
@@ -7169,8 +7154,7 @@
 week. Четная week.</t>
   </si>
   <si>
-    <t>s.  Проектное обучение
-s.
+    <t>s.  s.
 ty.  Проект
 ty.
 te.  te.
@@ -7517,8 +7501,7 @@
 week. Четная week.</t>
   </si>
   <si>
-    <t>s.  Проектное обучение
-s.
+    <t>s.  s.
 ty.  Проект
 ty.
 te.  te.
@@ -7528,8 +7511,7 @@
 week. Четная week.</t>
   </si>
   <si>
-    <t>s.  Проектное обучение
-s.
+    <t>s.  s.
 ty.  Проект
 ty.
 te.  te.
@@ -8106,8 +8088,7 @@
 week. Четная week.</t>
   </si>
   <si>
-    <t>s.  Проектное обучение
-s.
+    <t>s.  s.
 ty.  Проект
 ty.
 te.  te.
@@ -8117,8 +8098,7 @@
 week. Четная week.</t>
   </si>
   <si>
-    <t>s.  Проектное обучение
-s.
+    <t>s.  s.
 ty.  Проект
 ty.
 te.  te.
@@ -8128,8 +8108,7 @@
 week. Четная week.</t>
   </si>
   <si>
-    <t>s.  Проектное обучение
-s.
+    <t>s.  s.
 ty.  Проект
 ty.
 te.  te.
@@ -8139,8 +8118,7 @@
 week. Четная week.</t>
   </si>
   <si>
-    <t>s.  Проектное обучение
-s.
+    <t>s.  s.
 ty.  Проект
 ty.
 te.  te.
@@ -8719,8 +8697,7 @@
 week. Четная week.</t>
   </si>
   <si>
-    <t>s.  Проектное обучение
-s.
+    <t>s.  s.
 ty.  Проект
 ty.
 te.  te.
@@ -8730,8 +8707,7 @@
 week. Четная week.</t>
   </si>
   <si>
-    <t>s.  Проектное обучение
-s.
+    <t>s.  s.
 ty.  Проект
 ty.
 te.  te.
@@ -8741,8 +8717,7 @@
 week. Четная week.</t>
   </si>
   <si>
-    <t>s.  Проектное обучение
-s.
+    <t>s.  s.
 ty.  Проект
 ty.
 te.  te.
@@ -8752,8 +8727,7 @@
 week. Четная week.</t>
   </si>
   <si>
-    <t>s.  Проектное обучение
-s.
+    <t>s.  s.
 ty.  Проект
 ty.
 te.  te.
@@ -9775,8 +9749,7 @@
 week. Четная week.</t>
   </si>
   <si>
-    <t>s.  Проектное обучение
-s.
+    <t>s.  s.
 ty.  Проект
 ty.
 te.  te.
@@ -9786,8 +9759,7 @@
 week. Четная week.</t>
   </si>
   <si>
-    <t>s.  Проектное обучение
-s.
+    <t>s.  s.
 ty.  Проект
 ty.
 te.  te.
@@ -9797,8 +9769,7 @@
 week. Четная week.</t>
   </si>
   <si>
-    <t>s.  Проектное обучение
-s.
+    <t>s.  s.
 ty.  Проект
 ty.
 te.  te.
@@ -9808,8 +9779,7 @@
 week. Четная week.</t>
   </si>
   <si>
-    <t>s.  Проектное обучение
-s.
+    <t>s.  s.
 ty.  Проект
 ty.
 te.  te.
@@ -10580,8 +10550,7 @@
 week. Четная week.</t>
   </si>
   <si>
-    <t>s.  Проектное обучение
-s.
+    <t>s.  s.
 ty.  Проект
 ty.
 te.  te.
@@ -10591,8 +10560,7 @@
 week. Четная week.</t>
   </si>
   <si>
-    <t>s.  Проектное обучение
-s.
+    <t>s.  s.
 ty.  Проект
 ty.
 te.  te.
@@ -10602,8 +10570,7 @@
 week. Четная week.</t>
   </si>
   <si>
-    <t>s.  Проектное обучение
-s.
+    <t>s.  s.
 ty.  Проект
 ty.
 te.  te.
@@ -10613,8 +10580,7 @@
 week. Четная week.</t>
   </si>
   <si>
-    <t>s.  Проектное обучение
-s.
+    <t>s.  s.
 ty.  Проект
 ty.
 te.  te.
@@ -11402,8 +11368,7 @@
 week. Четная week.</t>
   </si>
   <si>
-    <t>s.  Проектное обучение
-s.
+    <t>s.  s.
 ty.  Проект
 ty.
 te.  te.
@@ -11675,8 +11640,7 @@
 week. Четная week.</t>
   </si>
   <si>
-    <t>s.  Проектное обучение
-s.
+    <t>s.  s.
 ty.  Проект
 ty.
 te.  te.
@@ -11686,8 +11650,7 @@
 week. Четная week.</t>
   </si>
   <si>
-    <t>s.  Проектное обучение
-s.
+    <t>s.  s.
 ty.  Проект
 ty.
 te.  te.
@@ -11697,8 +11660,7 @@
 week. Четная week.</t>
   </si>
   <si>
-    <t>s.  Проектное обучение
-s.
+    <t>s.  s.
 ty.  Проект
 ty.
 te.  te.
@@ -11708,8 +11670,7 @@
 week. Четная week.</t>
   </si>
   <si>
-    <t>s.  Проектное обучение
-s.
+    <t>s.  s.
 ty.  Проект
 ty.
 te.  te.
@@ -11850,8 +11811,7 @@
 week. Четная week.</t>
   </si>
   <si>
-    <t>s.  Проектное обучение
-s.
+    <t>s.  s.
 ty.  Проект
 ty.
 te.  te.
@@ -11861,8 +11821,7 @@
 week. Четная week.</t>
   </si>
   <si>
-    <t>s.  Проектное обучение
-s.
+    <t>s.  s.
 ty.  Проект
 ty.
 te.  te.
@@ -11872,8 +11831,7 @@
 week. Четная week.</t>
   </si>
   <si>
-    <t>s.  Проектное обучение
-s.
+    <t>s.  s.
 ty.  Проект
 ty.
 te.  te.
@@ -11883,8 +11841,7 @@
 week. Четная week.</t>
   </si>
   <si>
-    <t>s.  Проектное обучение
-s.
+    <t>s.  s.
 ty.  Проект
 ty.
 te.  te.
